--- a/Final_Amazon_Ready_Upload.xlsx
+++ b/Final_Amazon_Ready_Upload.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:AD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,110 +466,120 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>manufacturer</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>part_number</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>standard_price</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>quantity</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>main_image_url</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>other_image_url1</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>other_image_url2</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>other_image_url3</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>department_name</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>color_name</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>size_name</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>material_type</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>fit_type</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>neck_style</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>pattern_type</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>product_description</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>bullet_point1</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>bullet_point2</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>bullet_point3</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>generic_keywords</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>country_of_origin</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>batteries_required</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>are_batteries_included</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>supplier_declared_dg_hz_regulation</t>
         </is>
@@ -583,71 +593,77 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SWEET_INDIA_1001</t>
+          <t>MTE_KURTA_1001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sweet India</t>
+          <t>Multi Task Enterprises</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Sweet India Premium kurta set for women kurti pant with dupatta</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+          <t>kurta set for women kurti pant with dupatta</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Multi Task Enterprises</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
         <v>999</v>
       </c>
-      <c r="H2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1001_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1001_img2.jpg</t>
-        </is>
+      <c r="J2" t="n">
+        <v>100</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1001_img3.jpg</t>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1001_img1.jpg</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1001_img4.jpg</t>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1001_img2.jpg</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1001_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1001_img4.jpg</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>Free Size</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>Cotton Blend</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -700,38 +716,38 @@
 More Information</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Original Product from Multi Task Enterprises.</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>Premium Quality Fabric, Comfortable to wear.</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Perfect for Casual, Party &amp; Festive wear.</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>Care Instructions: Machine Wash / Hand Wash.</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr">
         <is>
+          <t>Ideal for Casual, Party &amp; Festive wear.</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr">
+        <is>
           <t>India</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>Not Applicable</t>
         </is>
@@ -745,71 +761,77 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SWEET_INDIA_1002</t>
+          <t>MTE_KURTA_1002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sweet India</t>
+          <t>Multi Task Enterprises</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sweet India Premium women kurta and pant set for women kurta sets</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+          <t>women kurta and pant set for women kurta sets</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Multi Task Enterprises</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
         <v>999</v>
       </c>
-      <c r="H3" t="n">
-        <v>50</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1002_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1002_img2.jpg</t>
-        </is>
+      <c r="J3" t="n">
+        <v>100</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1002_img3.jpg</t>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1002_img1.jpg</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1002_img4.jpg</t>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1002_img2.jpg</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1002_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1002_img4.jpg</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Free Size</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>Cotton Blend</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr">
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -859,38 +881,38 @@
 More Information</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Original Product from Multi Task Enterprises.</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>Premium Quality Fabric, Comfortable to wear.</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>Perfect for Casual, Party &amp; Festive wear.</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>Care Instructions: Machine Wash / Hand Wash.</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr">
         <is>
+          <t>Ideal for Casual, Party &amp; Festive wear.</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr">
+        <is>
           <t>India</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>Not Applicable</t>
         </is>
@@ -904,67 +926,73 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SWEET_INDIA_1003</t>
+          <t>MTE_KURTA_1003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sweet India</t>
+          <t>Multi Task Enterprises</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sweet India Premium Women Kurta Pant Sets Women Kurta Sets With Dupatta</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+          <t>Women Kurta Pant Sets Women Kurta Sets With Dupatta</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Multi Task Enterprises</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
         <v>999</v>
       </c>
-      <c r="H4" t="n">
-        <v>50</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1003_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1003_img2.jpg</t>
-        </is>
+      <c r="J4" t="n">
+        <v>100</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1003_img3.jpg</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr"/>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1003_img1.jpg</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1003_img2.jpg</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1003_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>Free Size</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>Cotton Blend</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr">
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -1017,38 +1045,38 @@
 More Information</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Original Product from Multi Task Enterprises.</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>Premium Quality Fabric, Comfortable to wear.</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Perfect for Casual, Party &amp; Festive wear.</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>Care Instructions: Machine Wash / Hand Wash.</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr">
         <is>
+          <t>Ideal for Casual, Party &amp; Festive wear.</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr">
+        <is>
           <t>India</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>Not Applicable</t>
         </is>
@@ -1062,71 +1090,77 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SWEET_INDIA_1004</t>
+          <t>MTE_KURTA_1004</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sweet India</t>
+          <t>Multi Task Enterprises</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sweet India Premium kurta sets with dupattas for women</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+          <t>kurta sets with dupattas for women</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Multi Task Enterprises</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
         <v>999</v>
       </c>
-      <c r="H5" t="n">
-        <v>50</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1004_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1004_img2.jpg</t>
-        </is>
+      <c r="J5" t="n">
+        <v>100</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1004_img3.jpg</t>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1004_img1.jpg</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1004_img4.jpg</t>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1004_img2.jpg</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1004_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1004_img4.jpg</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>Free Size</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>Cotton Blend</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr">
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -1176,38 +1210,38 @@
 More Information</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Original Product from Multi Task Enterprises.</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>Premium Quality Fabric, Comfortable to wear.</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>Perfect for Casual, Party &amp; Festive wear.</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>Care Instructions: Machine Wash / Hand Wash.</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr">
         <is>
+          <t>Ideal for Casual, Party &amp; Festive wear.</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr">
+        <is>
           <t>India</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AB5" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>Not Applicable</t>
         </is>
@@ -1221,71 +1255,77 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SWEET_INDIA_1005</t>
+          <t>MTE_KURTA_1005</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sweet India</t>
+          <t>Multi Task Enterprises</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sweet India Premium women kurta set kurti pant sets</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+          <t>women kurta set kurti pant sets</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Multi Task Enterprises</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
         <v>999</v>
       </c>
-      <c r="H6" t="n">
-        <v>50</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1005_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1005_img2.jpg</t>
-        </is>
+      <c r="J6" t="n">
+        <v>100</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1005_img3.jpg</t>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1005_img1.jpg</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1005_img4.jpg</t>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1005_img2.jpg</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1005_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1005_img4.jpg</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>Free Size</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>Cotton Blend</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr">
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -1336,38 +1376,38 @@
 More Information</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Original Product from Multi Task Enterprises.</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>Premium Quality Fabric, Comfortable to wear.</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>Perfect for Casual, Party &amp; Festive wear.</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>Care Instructions: Machine Wash / Hand Wash.</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr">
         <is>
+          <t>Ideal for Casual, Party &amp; Festive wear.</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr">
+        <is>
           <t>India</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>Not Applicable</t>
         </is>
@@ -1381,71 +1421,77 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SWEET_INDIA_1006</t>
+          <t>MTE_KURTA_1006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sweet India</t>
+          <t>Multi Task Enterprises</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sweet India Premium Women Stretchable Blouse For Women</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+          <t>Women Stretchable Blouse For Women</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Multi Task Enterprises</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
         <v>999</v>
       </c>
-      <c r="H7" t="n">
-        <v>50</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1006_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1006_img2.jpg</t>
-        </is>
+      <c r="J7" t="n">
+        <v>100</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1006_img3.jpg</t>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1006_img1.jpg</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1006_img4.jpg</t>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1006_img2.jpg</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1006_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1006_img4.jpg</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Free Size</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>Cotton Blend</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr">
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -1495,38 +1541,38 @@
 More Information</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Original Product from Multi Task Enterprises.</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>Premium Quality Fabric, Comfortable to wear.</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>Perfect for Casual, Party &amp; Festive wear.</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>Care Instructions: Machine Wash / Hand Wash.</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr">
         <is>
+          <t>Ideal for Casual, Party &amp; Festive wear.</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr">
+        <is>
           <t>India</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>Not Applicable</t>
         </is>
@@ -1540,71 +1586,77 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SWEET_INDIA_1007</t>
+          <t>MTE_KURTA_1007</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sweet India</t>
+          <t>Multi Task Enterprises</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sweet India Premium Women partywear kurta set for women kurti pant dupatta set</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+          <t>Women partywear kurta set for women kurti pant dupatta set</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Multi Task Enterprises</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
         <v>999</v>
       </c>
-      <c r="H8" t="n">
-        <v>50</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1007_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1007_img2.jpg</t>
-        </is>
+      <c r="J8" t="n">
+        <v>100</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1007_img3.jpg</t>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1007_img1.jpg</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1007_img4.jpg</t>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1007_img2.jpg</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1007_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1007_img4.jpg</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>Free Size</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>Cotton Blend</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr">
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -1654,38 +1706,38 @@
 More Information</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Original Product from Multi Task Enterprises.</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>Premium Quality Fabric, Comfortable to wear.</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>Perfect for Casual, Party &amp; Festive wear.</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>Care Instructions: Machine Wash / Hand Wash.</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr">
         <is>
+          <t>Ideal for Casual, Party &amp; Festive wear.</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr">
+        <is>
           <t>India</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="AB8" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>Not Applicable</t>
         </is>
@@ -1699,71 +1751,77 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SWEET_INDIA_1008</t>
+          <t>MTE_KURTA_1008</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sweet India</t>
+          <t>Multi Task Enterprises</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sweet India Premium Women Kurta sets for women kurta with pant kurti pant sets for women</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+          <t>Women Kurta sets for women kurta with pant kurti pant sets for women</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Multi Task Enterprises</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
         <v>999</v>
       </c>
-      <c r="H9" t="n">
-        <v>50</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1008_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1008_img2.jpg</t>
-        </is>
+      <c r="J9" t="n">
+        <v>100</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1008_img3.jpg</t>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1008_img1.jpg</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1008_img4.jpg</t>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1008_img2.jpg</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1008_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1008_img4.jpg</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>Free Size</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>Cotton Blend</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr">
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -1817,38 +1875,38 @@
 More Information</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Original Product from Multi Task Enterprises.</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>Premium Quality Fabric, Comfortable to wear.</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>Perfect for Casual, Party &amp; Festive wear.</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>Care Instructions: Machine Wash / Hand Wash.</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr">
         <is>
+          <t>Ideal for Casual, Party &amp; Festive wear.</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr">
+        <is>
           <t>India</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>Not Applicable</t>
         </is>
@@ -1862,71 +1920,77 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SWEET_INDIA_1009</t>
+          <t>MTE_KURTA_1009</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sweet India</t>
+          <t>Multi Task Enterprises</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Sweet India Premium Women Partywear Kurta Sets For Women Dupatta Sets Kurta With Pants Kurti With Pant Cotton Kurti with pants</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+          <t>Women Partywear Kurta Sets For Women Dupatta Sets Kurta With Pants Kurti With Pant Cotton Kurti with pants</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Multi Task Enterprises</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
         <v>999</v>
       </c>
-      <c r="H10" t="n">
-        <v>50</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1009_img1.jpg</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1009_img2.jpg</t>
-        </is>
+      <c r="J10" t="n">
+        <v>100</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1009_img3.jpg</t>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1009_img1.jpg</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/SWEET_INDIA_1009_img4.jpg</t>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1009_img2.jpg</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1009_img3.jpg</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/mademoneyai-hub/sweet-india-products/main/MTE_KURTA_1009_img4.jpg</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>Women</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>Multicolor</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>Free Size</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>Cotton Blend</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr">
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr">
         <is>
           <t>Name
  : 
@@ -1976,38 +2040,38 @@
 More Information</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Original Product from Multi Task Enterprises.</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>Premium Quality Fabric, Comfortable to wear.</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>Perfect for Casual, Party &amp; Festive wear.</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>Care Instructions: Machine Wash / Hand Wash.</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr">
         <is>
+          <t>Ideal for Casual, Party &amp; Festive wear.</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr">
+        <is>
           <t>India</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>Not Applicable</t>
         </is>
